--- a/database/drugs.xlsx
+++ b/database/drugs.xlsx
@@ -484,7 +484,7 @@
         <v>15</v>
       </c>
       <c r="D3" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4">

--- a/database/drugs.xlsx
+++ b/database/drugs.xlsx
@@ -484,7 +484,7 @@
         <v>15</v>
       </c>
       <c r="D3" t="n">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4">

--- a/database/drugs.xlsx
+++ b/database/drugs.xlsx
@@ -468,7 +468,7 @@
         <v>10</v>
       </c>
       <c r="D2" t="n">
-        <v>100</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3">
@@ -500,7 +500,7 @@
         <v>22</v>
       </c>
       <c r="D4" t="n">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>

--- a/database/drugs.xlsx
+++ b/database/drugs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -500,7 +500,23 @@
         <v>22</v>
       </c>
       <c r="D4" t="n">
-        <v>77</v>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>skurwisol</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>20</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2137</v>
       </c>
     </row>
   </sheetData>

--- a/database/drugs.xlsx
+++ b/database/drugs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -519,6 +519,38 @@
         <v>2137</v>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>pizdohol</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>12</v>
+      </c>
+      <c r="D6" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>ritunoskorwin</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>420</v>
+      </c>
+      <c r="D7" t="n">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/database/drugs.xlsx
+++ b/database/drugs.xlsx
@@ -516,7 +516,7 @@
         <v>20</v>
       </c>
       <c r="D5" t="n">
-        <v>2137</v>
+        <v>2133</v>
       </c>
     </row>
     <row r="6">

--- a/database/drugs.xlsx
+++ b/database/drugs.xlsx
@@ -500,7 +500,7 @@
         <v>22</v>
       </c>
       <c r="D4" t="n">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5">

--- a/database/drugs.xlsx
+++ b/database/drugs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,6 +454,11 @@
           <t>stan_magazynowy</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>numer_recepty</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -470,6 +475,9 @@
       <c r="D2" t="n">
         <v>76</v>
       </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -484,7 +492,10 @@
         <v>15</v>
       </c>
       <c r="D3" t="n">
-        <v>71</v>
+        <v>70</v>
+      </c>
+      <c r="E3" t="n">
+        <v>123456</v>
       </c>
     </row>
     <row r="4">
@@ -500,7 +511,10 @@
         <v>22</v>
       </c>
       <c r="D4" t="n">
-        <v>49</v>
+        <v>47</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -518,6 +532,9 @@
       <c r="D5" t="n">
         <v>2133</v>
       </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -534,6 +551,9 @@
       <c r="D6" t="n">
         <v>12</v>
       </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -549,6 +569,9 @@
       </c>
       <c r="D7" t="n">
         <v>2</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/database/drugs.xlsx
+++ b/database/drugs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,11 +466,11 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>apap</t>
+          <t>Apap</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="D2" t="n">
         <v>76</v>
@@ -485,17 +485,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ibuprom</t>
+          <t>Ibuprom</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>15</v>
+        <v>15.2</v>
       </c>
       <c r="D3" t="n">
         <v>70</v>
       </c>
       <c r="E3" t="n">
-        <v>123456</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -504,14 +504,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>gripex</t>
+          <t>Gripex</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>22</v>
       </c>
       <c r="D4" t="n">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -523,11 +523,11 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>skurwisol</t>
+          <t>Rutinoscorbin</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>20</v>
+        <v>12.8</v>
       </c>
       <c r="D5" t="n">
         <v>2133</v>
@@ -542,11 +542,11 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pizdohol</t>
+          <t>No-Spa</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>12</v>
+        <v>18.9</v>
       </c>
       <c r="D6" t="n">
         <v>12</v>
@@ -561,17 +561,663 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ritunoskorwin</t>
+          <t>Smecta</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>420</v>
+        <v>25.3</v>
       </c>
       <c r="D7" t="n">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Allertec</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="D8" t="n">
+        <v>89</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Xylorin</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="D9" t="n">
+        <v>150</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Enterol</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>32.4</v>
+      </c>
+      <c r="D10" t="n">
+        <v>45</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Maść końska</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="D11" t="n">
+        <v>67</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Vitamin C</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="D12" t="n">
+        <v>230</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>DexaPico</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>19.99</v>
+      </c>
+      <c r="D13" t="n">
+        <v>88</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Loperamid</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="D14" t="n">
+        <v>42</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Aspirin</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="D15" t="n">
+        <v>120</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Acard</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="D16" t="n">
+        <v>95</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Gardimax</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="D17" t="n">
+        <v>33</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Linosin</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="D18" t="n">
+        <v>78</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Tantum Verde</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="D19" t="n">
+        <v>54</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Fenistil</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="D20" t="n">
+        <v>62</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Strepsils</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="D21" t="n">
+        <v>110</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Euthyrox</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="D22" t="n">
+        <v>30</v>
+      </c>
+      <c r="E22" t="n">
+        <v>123456</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Amotaks</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>45.6</v>
+      </c>
+      <c r="D23" t="n">
+        <v>25</v>
+      </c>
+      <c r="E23" t="n">
+        <v>654321</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Xanax</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>78.90000000000001</v>
+      </c>
+      <c r="D24" t="n">
+        <v>12</v>
+      </c>
+      <c r="E24" t="n">
+        <v>987654</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Symbicort</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>120</v>
+      </c>
+      <c r="D25" t="n">
+        <v>8</v>
+      </c>
+      <c r="E25" t="n">
+        <v>456789</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Metformax</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="D26" t="n">
+        <v>50</v>
+      </c>
+      <c r="E26" t="n">
+        <v>321654</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Pantoprazol</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>32.4</v>
+      </c>
+      <c r="D27" t="n">
+        <v>40</v>
+      </c>
+      <c r="E27" t="n">
+        <v>789123</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Zoloft</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>95.3</v>
+      </c>
+      <c r="D28" t="n">
+        <v>15</v>
+      </c>
+      <c r="E28" t="n">
+        <v>159753</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Enelbin</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="D29" t="n">
+        <v>22</v>
+      </c>
+      <c r="E29" t="n">
+        <v>357159</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Nexium</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>67.2</v>
+      </c>
+      <c r="D30" t="n">
+        <v>18</v>
+      </c>
+      <c r="E30" t="n">
+        <v>258456</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Hydrokortyzon</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="D31" t="n">
+        <v>35</v>
+      </c>
+      <c r="E31" t="n">
+        <v>852741</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Ventolin</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>55</v>
+      </c>
+      <c r="D32" t="n">
+        <v>20</v>
+      </c>
+      <c r="E32" t="n">
+        <v>963852</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Clexane</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>89.09999999999999</v>
+      </c>
+      <c r="D33" t="n">
+        <v>10</v>
+      </c>
+      <c r="E33" t="n">
+        <v>741852</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Betaloc</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>18.3</v>
+      </c>
+      <c r="D34" t="n">
+        <v>28</v>
+      </c>
+      <c r="E34" t="n">
+        <v>369258</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Neosine</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>24.6</v>
+      </c>
+      <c r="D35" t="n">
+        <v>19</v>
+      </c>
+      <c r="E35" t="n">
+        <v>147258</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Ketonal</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>37.8</v>
+      </c>
+      <c r="D36" t="n">
+        <v>14</v>
+      </c>
+      <c r="E36" t="n">
+        <v>258369</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Magnez B6</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="D37" t="n">
+        <v>60</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Diazepam</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>62.4</v>
+      </c>
+      <c r="D38" t="n">
+        <v>5</v>
+      </c>
+      <c r="E38" t="n">
+        <v>951753</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Propranolol</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>20.1</v>
+      </c>
+      <c r="D39" t="n">
+        <v>17</v>
+      </c>
+      <c r="E39" t="n">
+        <v>753159</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Seronil</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>88.2</v>
+      </c>
+      <c r="D40" t="n">
+        <v>9</v>
+      </c>
+      <c r="E40" t="n">
+        <v>456123</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Pramolan</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>43.7</v>
+      </c>
+      <c r="D41" t="n">
+        <v>11</v>
+      </c>
+      <c r="E41" t="n">
+        <v>789456</v>
       </c>
     </row>
   </sheetData>
